--- a/PP_HERv1_HAR_MEPPP.xlsx
+++ b/PP_HERv1_HAR_MEPPP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="20490" windowHeight="8925" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Identificacion" sheetId="9" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="Exposure">Exposure!$S$4:$U$28</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Detalle del Riesgo'!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2098,7 +2098,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2691,14 +2691,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2715,17 +2709,20 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2985,7 +2982,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3204,7 +3201,7 @@
                     <a:cs typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3327,7 +3324,7 @@
                     <a:cs typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3450,7 +3447,7 @@
                     <a:cs typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3573,7 +3570,7 @@
                     <a:cs typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3642,12 +3639,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="79248384"/>
-        <c:axId val="79111296"/>
-        <c:axId val="67667840"/>
+        <c:axId val="126742528"/>
+        <c:axId val="126744064"/>
+        <c:axId val="124506112"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="79248384"/>
+        <c:axId val="126742528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3689,10 +3686,10 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79111296"/>
+        <c:crossAx val="126744064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3702,7 +3699,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79111296"/>
+        <c:axId val="126744064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3744,16 +3741,16 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79248384"/>
+        <c:crossAx val="126742528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="67667840"/>
+        <c:axId val="124506112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3795,10 +3792,10 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79111296"/>
+        <c:crossAx val="126744064"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -3839,7 +3836,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6476,7 +6473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -6566,10 +6563,10 @@
       <c r="D15" s="195"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="225" t="s">
+      <c r="A16" s="226" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="226"/>
+      <c r="B16" s="227"/>
       <c r="C16" s="197"/>
       <c r="D16" s="197"/>
       <c r="E16" s="198"/>
@@ -6617,10 +6614,10 @@
       <c r="D21" s="195"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="225" t="s">
+      <c r="A22" s="226" t="s">
         <v>218</v>
       </c>
-      <c r="B22" s="226"/>
+      <c r="B22" s="227"/>
       <c r="C22" s="195"/>
       <c r="D22" s="195"/>
     </row>
@@ -7559,8 +7556,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AB551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="D186" sqref="D186"/>
+    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
+      <selection activeCell="D545" sqref="D545:D549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9922,7 +9919,7 @@
       <c r="C134" s="163">
         <v>6</v>
       </c>
-      <c r="D134" s="227" t="s">
+      <c r="D134" s="223" t="s">
         <v>272</v>
       </c>
       <c r="E134" s="165" t="s">
@@ -10319,7 +10316,7 @@
       <c r="C156" s="26">
         <v>3</v>
       </c>
-      <c r="D156" s="218" t="s">
+      <c r="D156" s="217" t="s">
         <v>346</v>
       </c>
       <c r="E156" s="27">
@@ -10830,7 +10827,7 @@
       <c r="C186" s="163">
         <v>8</v>
       </c>
-      <c r="D186" s="228" t="s">
+      <c r="D186" s="224" t="s">
         <v>280</v>
       </c>
       <c r="E186" s="165" t="s">
@@ -11284,7 +11281,7 @@
       <c r="C212" s="163">
         <v>9</v>
       </c>
-      <c r="D212" s="219" t="s">
+      <c r="D212" s="225" t="s">
         <v>281</v>
       </c>
       <c r="E212" s="165" t="s">
@@ -11738,7 +11735,7 @@
       <c r="C238" s="163">
         <v>10</v>
       </c>
-      <c r="D238" s="219" t="s">
+      <c r="D238" s="225" t="s">
         <v>282</v>
       </c>
       <c r="E238" s="165" t="s">
@@ -13077,14 +13074,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="317" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:28" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B317" s="162" t="s">
         <v>102</v>
       </c>
       <c r="C317" s="163">
         <v>13</v>
       </c>
-      <c r="D317" s="219" t="s">
+      <c r="D317" s="225" t="s">
         <v>301</v>
       </c>
       <c r="E317" s="165" t="s">
@@ -13987,7 +13984,7 @@
       <c r="C369" s="163">
         <v>15</v>
       </c>
-      <c r="D369" s="224" t="s">
+      <c r="D369" s="222" t="s">
         <v>303</v>
       </c>
       <c r="E369" s="165" t="s">
@@ -15318,13 +15315,13 @@
       </c>
     </row>
     <row r="445" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B445" s="221" t="s">
+      <c r="B445" s="219" t="s">
         <v>295</v>
       </c>
       <c r="C445" s="30">
         <v>5</v>
       </c>
-      <c r="D445" s="222" t="s">
+      <c r="D445" s="220" t="s">
         <v>325</v>
       </c>
       <c r="E445" s="32">
@@ -15813,7 +15810,7 @@
       <c r="B474" s="188" t="s">
         <v>206</v>
       </c>
-      <c r="C474" s="223">
+      <c r="C474" s="221">
         <v>4.2</v>
       </c>
       <c r="D474" s="190"/>
@@ -16597,7 +16594,7 @@
       <c r="D519" s="211" t="s">
         <v>310</v>
       </c>
-      <c r="E519" s="220">
+      <c r="E519" s="218">
         <v>42951</v>
       </c>
       <c r="F519" s="28"/>
@@ -16693,7 +16690,7 @@
       <c r="C525" s="163">
         <v>21</v>
       </c>
-      <c r="D525" s="217" t="s">
+      <c r="D525" s="223" t="s">
         <v>309</v>
       </c>
       <c r="E525" s="165" t="s">
@@ -17051,7 +17048,7 @@
       <c r="D545" s="211" t="s">
         <v>310</v>
       </c>
-      <c r="E545" s="220">
+      <c r="E545" s="218">
         <v>42951</v>
       </c>
       <c r="F545" s="28"/>
@@ -17126,13 +17123,13 @@
       </c>
     </row>
     <row r="549" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B549" s="221" t="s">
+      <c r="B549" s="219" t="s">
         <v>237</v>
       </c>
       <c r="C549" s="30">
         <v>5</v>
       </c>
-      <c r="D549" s="222" t="s">
+      <c r="D549" s="220" t="s">
         <v>383</v>
       </c>
       <c r="E549" s="32">
@@ -18807,7 +18804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
